--- a/kaggle.com/Santander_Customer_Transaction_Prediction/Project_Strategy.xlsx
+++ b/kaggle.com/Santander_Customer_Transaction_Prediction/Project_Strategy.xlsx
@@ -5,16 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rbwes\Documents\Programmierworkspaces\Python\Private_Projects\Absatz_Prediction\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rbwes\Documents\Programmierworkspaces\Python\DataScienceProjects-1\kaggle.com\Santander_Customer_Transaction_Prediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3F26A29-29B7-4F1A-AB88-D2BDB5B5CB8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13C73CC4-8BA2-4D95-822E-457391D069AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Generelle_Vorgehensweise_CRISP" sheetId="1" r:id="rId1"/>
-    <sheet name="Spezif_Vorgehensweise_Projekt" sheetId="2" r:id="rId2"/>
+    <sheet name="General_Procedure_CRISP" sheetId="1" r:id="rId1"/>
+    <sheet name="Specific_Procedure_for_Project" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,31 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>*Die hier durch die Pfeile/die Position der einzelnen Phasen suggerierte Reihenfolge ist nicht fix und für jedes Projekt gleich.</t>
-  </si>
-  <si>
-    <t>*Das Springen zwischen einzelnen Phasen ist meisten notwendig</t>
-  </si>
-  <si>
-    <t>*Die hier gezeigte Darstellung bildet den zumeist genutzten Weg durch das Projekt ab</t>
-  </si>
-  <si>
-    <t>*Genereller Projekt-Lebenszyklus nach CRISP-DM</t>
-  </si>
-  <si>
-    <t>*Phasenüberblick  nach CRISP-DM</t>
-  </si>
-  <si>
-    <t>Generelle Vorgehensweise nach CRISP-DM</t>
-  </si>
-  <si>
-    <t>Spezifische Vorgehensweise im Projekt</t>
-  </si>
-  <si>
-    <t>*Wie soll im Klein-Projekt "Absatzvorhersage ZF SBR" vorgegangen werden?</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>*Ich orientiere mich an dem CRISP-DM Framework und seinen einzelnen Phasen</t>
   </si>
@@ -71,6 +47,27 @@
   </si>
   <si>
     <t>Phase 4: Modeling</t>
+  </si>
+  <si>
+    <t>General Procedure using CRISP-DM</t>
+  </si>
+  <si>
+    <t>*General Project Cycle CRISP-DM</t>
+  </si>
+  <si>
+    <t>*The arrows indicate the most important and frequent dependencies between phases.</t>
+  </si>
+  <si>
+    <t>*The sequence of the phases is not rigid. Moving back and forth between different phases is always required.</t>
+  </si>
+  <si>
+    <t>*Overview Phases  CRISP-DM</t>
+  </si>
+  <si>
+    <t>Specific Procedure for Project "Santander Customer Transaction Prediction"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*How should we proceed </t>
   </si>
 </sst>
 </file>
@@ -167,7 +164,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -177,6 +174,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -4317,7 +4315,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="de-DE"/>
-            <a:t>Data Preparatio</a:t>
+            <a:t>Data Preparation</a:t>
           </a:r>
         </a:p>
       </dgm:t>
@@ -5728,8 +5726,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4672" y="392729"/>
-          <a:ext cx="2719932" cy="1087972"/>
+          <a:off x="4508" y="486673"/>
+          <a:ext cx="2624403" cy="1049761"/>
         </a:xfrm>
         <a:prstGeom prst="chevron">
           <a:avLst/>
@@ -5772,12 +5770,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="80010" tIns="26670" rIns="26670" bIns="26670" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="76010" tIns="25337" rIns="25337" bIns="25337" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="889000">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="844550">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -5790,14 +5788,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="de-DE" sz="2000" kern="1200"/>
+            <a:rPr lang="de-DE" sz="1900" kern="1200"/>
             <a:t>Business Understanding</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="548658" y="392729"/>
-        <a:ext cx="1631960" cy="1087972"/>
+        <a:off x="529389" y="486673"/>
+        <a:ext cx="1574642" cy="1049761"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{0F685972-CAB9-4F91-855D-F64E4DDD58AC}">
@@ -5807,8 +5805,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2452611" y="392729"/>
-          <a:ext cx="2719932" cy="1087972"/>
+          <a:off x="2366471" y="486673"/>
+          <a:ext cx="2624403" cy="1049761"/>
         </a:xfrm>
         <a:prstGeom prst="chevron">
           <a:avLst/>
@@ -5851,12 +5849,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="80010" tIns="26670" rIns="26670" bIns="26670" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="76010" tIns="25337" rIns="25337" bIns="25337" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="889000">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="844550">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -5869,14 +5867,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="de-DE" sz="2000" kern="1200"/>
+            <a:rPr lang="de-DE" sz="1900" kern="1200"/>
             <a:t>Data Understanding</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2996597" y="392729"/>
-        <a:ext cx="1631960" cy="1087972"/>
+        <a:off x="2891352" y="486673"/>
+        <a:ext cx="1574642" cy="1049761"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{17D254A7-5410-4199-A532-0DEF39893E6F}">
@@ -5886,8 +5884,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4900550" y="392729"/>
-          <a:ext cx="2719932" cy="1087972"/>
+          <a:off x="4728434" y="486673"/>
+          <a:ext cx="2624403" cy="1049761"/>
         </a:xfrm>
         <a:prstGeom prst="chevron">
           <a:avLst/>
@@ -5930,12 +5928,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="80010" tIns="26670" rIns="26670" bIns="26670" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="76010" tIns="25337" rIns="25337" bIns="25337" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="889000">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="844550">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -5948,14 +5946,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="de-DE" sz="2000" kern="1200"/>
-            <a:t>Data Preparatio</a:t>
+            <a:rPr lang="de-DE" sz="1900" kern="1200"/>
+            <a:t>Data Preparation</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="5444536" y="392729"/>
-        <a:ext cx="1631960" cy="1087972"/>
+        <a:off x="5253315" y="486673"/>
+        <a:ext cx="1574642" cy="1049761"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{372F9F24-0327-4C22-A698-AFB77E0910A5}">
@@ -5965,8 +5963,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="7348490" y="392729"/>
-          <a:ext cx="2719932" cy="1087972"/>
+          <a:off x="7090398" y="486673"/>
+          <a:ext cx="2624403" cy="1049761"/>
         </a:xfrm>
         <a:prstGeom prst="chevron">
           <a:avLst/>
@@ -6009,12 +6007,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="80010" tIns="26670" rIns="26670" bIns="26670" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="76010" tIns="25337" rIns="25337" bIns="25337" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="889000">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="844550">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -6027,14 +6025,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="de-DE" sz="2000" kern="1200"/>
+            <a:rPr lang="de-DE" sz="1900" kern="1200"/>
             <a:t>Modeling</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="7892476" y="392729"/>
-        <a:ext cx="1631960" cy="1087972"/>
+        <a:off x="7615279" y="486673"/>
+        <a:ext cx="1574642" cy="1049761"/>
       </dsp:txXfrm>
     </dsp:sp>
   </dsp:spTree>
@@ -6056,8 +6054,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4678" y="151979"/>
-          <a:ext cx="2723533" cy="1089413"/>
+          <a:off x="4512" y="225718"/>
+          <a:ext cx="2626975" cy="1050790"/>
         </a:xfrm>
         <a:prstGeom prst="chevron">
           <a:avLst/>
@@ -6098,12 +6096,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="80010" tIns="26670" rIns="26670" bIns="26670" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="76010" tIns="25337" rIns="25337" bIns="25337" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="889000">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="844550">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -6116,14 +6114,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="de-DE" sz="2000" kern="1200"/>
+            <a:rPr lang="de-DE" sz="1900" kern="1200"/>
             <a:t>Business Understanding</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="549385" y="151979"/>
-        <a:ext cx="1634120" cy="1089413"/>
+        <a:off x="529907" y="225718"/>
+        <a:ext cx="1576185" cy="1050790"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{0F685972-CAB9-4F91-855D-F64E4DDD58AC}">
@@ -6133,8 +6131,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2455858" y="151979"/>
-          <a:ext cx="2723533" cy="1089413"/>
+          <a:off x="2368790" y="225718"/>
+          <a:ext cx="2626975" cy="1050790"/>
         </a:xfrm>
         <a:prstGeom prst="chevron">
           <a:avLst/>
@@ -6177,12 +6175,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="80010" tIns="26670" rIns="26670" bIns="26670" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="76010" tIns="25337" rIns="25337" bIns="25337" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="889000">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="844550">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -6195,14 +6193,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="de-DE" sz="2000" kern="1200"/>
+            <a:rPr lang="de-DE" sz="1900" kern="1200"/>
             <a:t>Data Understanding</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3000565" y="151979"/>
-        <a:ext cx="1634120" cy="1089413"/>
+        <a:off x="2894185" y="225718"/>
+        <a:ext cx="1576185" cy="1050790"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{17D254A7-5410-4199-A532-0DEF39893E6F}">
@@ -6212,8 +6210,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4907038" y="151979"/>
-          <a:ext cx="2723533" cy="1089413"/>
+          <a:off x="4733068" y="225718"/>
+          <a:ext cx="2626975" cy="1050790"/>
         </a:xfrm>
         <a:prstGeom prst="chevron">
           <a:avLst/>
@@ -6256,12 +6254,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="80010" tIns="26670" rIns="26670" bIns="26670" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="76010" tIns="25337" rIns="25337" bIns="25337" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="889000">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="844550">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -6274,14 +6272,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="de-DE" sz="2000" kern="1200"/>
+            <a:rPr lang="de-DE" sz="1900" kern="1200"/>
             <a:t>Data Preparation</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="5451745" y="151979"/>
-        <a:ext cx="1634120" cy="1089413"/>
+        <a:off x="5258463" y="225718"/>
+        <a:ext cx="1576185" cy="1050790"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{372F9F24-0327-4C22-A698-AFB77E0910A5}">
@@ -6291,8 +6289,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="7358218" y="151979"/>
-          <a:ext cx="2723533" cy="1089413"/>
+          <a:off x="7097346" y="225718"/>
+          <a:ext cx="2626975" cy="1050790"/>
         </a:xfrm>
         <a:prstGeom prst="chevron">
           <a:avLst/>
@@ -6335,12 +6333,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="80010" tIns="26670" rIns="26670" bIns="26670" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="76010" tIns="25337" rIns="25337" bIns="25337" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="889000">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="844550">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -6353,14 +6351,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="de-DE" sz="2000" kern="1200"/>
+            <a:rPr lang="de-DE" sz="1900" kern="1200"/>
             <a:t>Modeling</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="7902925" y="151979"/>
-        <a:ext cx="1634120" cy="1089413"/>
+        <a:off x="7622741" y="225718"/>
+        <a:ext cx="1576185" cy="1050790"/>
       </dsp:txXfrm>
     </dsp:sp>
   </dsp:spTree>
@@ -6382,8 +6380,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4678" y="123812"/>
-          <a:ext cx="2723533" cy="1089413"/>
+          <a:off x="4512" y="197552"/>
+          <a:ext cx="2626975" cy="1050790"/>
         </a:xfrm>
         <a:prstGeom prst="chevron">
           <a:avLst/>
@@ -6424,12 +6422,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="80010" tIns="26670" rIns="26670" bIns="26670" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="76010" tIns="25337" rIns="25337" bIns="25337" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="889000">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="844550">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -6442,14 +6440,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="de-DE" sz="2000" kern="1200"/>
+            <a:rPr lang="de-DE" sz="1900" kern="1200"/>
             <a:t>Business Understanding</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="549385" y="123812"/>
-        <a:ext cx="1634120" cy="1089413"/>
+        <a:off x="529907" y="197552"/>
+        <a:ext cx="1576185" cy="1050790"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{0F685972-CAB9-4F91-855D-F64E4DDD58AC}">
@@ -6459,8 +6457,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2455858" y="123812"/>
-          <a:ext cx="2723533" cy="1089413"/>
+          <a:off x="2368790" y="197552"/>
+          <a:ext cx="2626975" cy="1050790"/>
         </a:xfrm>
         <a:prstGeom prst="chevron">
           <a:avLst/>
@@ -6506,7 +6504,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="889000">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="844550">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -6519,14 +6517,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="de-DE" sz="2000" kern="1200"/>
+            <a:rPr lang="de-DE" sz="1900" kern="1200"/>
             <a:t>Data Understanding</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3000565" y="123812"/>
-        <a:ext cx="1634120" cy="1089413"/>
+        <a:off x="2894185" y="197552"/>
+        <a:ext cx="1576185" cy="1050790"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{17D254A7-5410-4199-A532-0DEF39893E6F}">
@@ -6536,8 +6534,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4907038" y="123812"/>
-          <a:ext cx="2723533" cy="1089413"/>
+          <a:off x="4733068" y="197552"/>
+          <a:ext cx="2626975" cy="1050790"/>
         </a:xfrm>
         <a:prstGeom prst="chevron">
           <a:avLst/>
@@ -6580,12 +6578,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="80010" tIns="26670" rIns="26670" bIns="26670" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="76010" tIns="25337" rIns="25337" bIns="25337" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="889000">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="844550">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -6598,14 +6596,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="de-DE" sz="2000" kern="1200"/>
+            <a:rPr lang="de-DE" sz="1900" kern="1200"/>
             <a:t>Data Preparation</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="5451745" y="123812"/>
-        <a:ext cx="1634120" cy="1089413"/>
+        <a:off x="5258463" y="197552"/>
+        <a:ext cx="1576185" cy="1050790"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{372F9F24-0327-4C22-A698-AFB77E0910A5}">
@@ -6615,8 +6613,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="7358218" y="123812"/>
-          <a:ext cx="2723533" cy="1089413"/>
+          <a:off x="7097346" y="197552"/>
+          <a:ext cx="2626975" cy="1050790"/>
         </a:xfrm>
         <a:prstGeom prst="chevron">
           <a:avLst/>
@@ -6659,12 +6657,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="80010" tIns="26670" rIns="26670" bIns="26670" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="76010" tIns="25337" rIns="25337" bIns="25337" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="889000">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="844550">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -6677,14 +6675,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="de-DE" sz="2000" kern="1200"/>
+            <a:rPr lang="de-DE" sz="1900" kern="1200"/>
             <a:t>Modeling</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="7902925" y="123812"/>
-        <a:ext cx="1634120" cy="1089413"/>
+        <a:off x="7622741" y="197552"/>
+        <a:ext cx="1576185" cy="1050790"/>
       </dsp:txXfrm>
     </dsp:sp>
   </dsp:spTree>
@@ -6706,8 +6704,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4678" y="121906"/>
-          <a:ext cx="2723533" cy="1089413"/>
+          <a:off x="4512" y="197551"/>
+          <a:ext cx="2626975" cy="1050790"/>
         </a:xfrm>
         <a:prstGeom prst="chevron">
           <a:avLst/>
@@ -6748,12 +6746,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="80010" tIns="26670" rIns="26670" bIns="26670" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="76010" tIns="25337" rIns="25337" bIns="25337" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="889000">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="844550">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -6766,14 +6764,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="de-DE" sz="2000" kern="1200"/>
+            <a:rPr lang="de-DE" sz="1900" kern="1200"/>
             <a:t>Business Understanding</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="549385" y="121906"/>
-        <a:ext cx="1634120" cy="1089413"/>
+        <a:off x="529907" y="197551"/>
+        <a:ext cx="1576185" cy="1050790"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{0F685972-CAB9-4F91-855D-F64E4DDD58AC}">
@@ -6783,8 +6781,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2455858" y="121906"/>
-          <a:ext cx="2723533" cy="1089413"/>
+          <a:off x="2368790" y="197551"/>
+          <a:ext cx="2626975" cy="1050790"/>
         </a:xfrm>
         <a:prstGeom prst="chevron">
           <a:avLst/>
@@ -6830,7 +6828,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="889000">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="844550">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -6843,14 +6841,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="de-DE" sz="2000" kern="1200"/>
+            <a:rPr lang="de-DE" sz="1900" kern="1200"/>
             <a:t>Data Understanding</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3000565" y="121906"/>
-        <a:ext cx="1634120" cy="1089413"/>
+        <a:off x="2894185" y="197551"/>
+        <a:ext cx="1576185" cy="1050790"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{17D254A7-5410-4199-A532-0DEF39893E6F}">
@@ -6860,8 +6858,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4907038" y="121906"/>
-          <a:ext cx="2723533" cy="1089413"/>
+          <a:off x="4733068" y="197551"/>
+          <a:ext cx="2626975" cy="1050790"/>
         </a:xfrm>
         <a:prstGeom prst="chevron">
           <a:avLst/>
@@ -6938,8 +6936,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="5451745" y="121906"/>
-        <a:ext cx="1634120" cy="1089413"/>
+        <a:off x="5258463" y="197551"/>
+        <a:ext cx="1576185" cy="1050790"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{372F9F24-0327-4C22-A698-AFB77E0910A5}">
@@ -6949,8 +6947,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="7358218" y="121906"/>
-          <a:ext cx="2723533" cy="1089413"/>
+          <a:off x="7097346" y="197551"/>
+          <a:ext cx="2626975" cy="1050790"/>
         </a:xfrm>
         <a:prstGeom prst="chevron">
           <a:avLst/>
@@ -6993,12 +6991,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="80010" tIns="26670" rIns="26670" bIns="26670" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="76010" tIns="25337" rIns="25337" bIns="25337" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="889000">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="844550">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -7011,14 +7009,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="de-DE" sz="2000" kern="1200"/>
+            <a:rPr lang="de-DE" sz="1900" kern="1200"/>
             <a:t>Modeling</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="7902925" y="121906"/>
-        <a:ext cx="1634120" cy="1089413"/>
+        <a:off x="7622741" y="197551"/>
+        <a:ext cx="1576185" cy="1050790"/>
       </dsp:txXfrm>
     </dsp:sp>
   </dsp:spTree>
@@ -7040,8 +7038,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4676" y="124970"/>
-          <a:ext cx="2722504" cy="1089001"/>
+          <a:off x="4511" y="198710"/>
+          <a:ext cx="2625946" cy="1050378"/>
         </a:xfrm>
         <a:prstGeom prst="chevron">
           <a:avLst/>
@@ -7082,12 +7080,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="80010" tIns="26670" rIns="26670" bIns="26670" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="76010" tIns="25337" rIns="25337" bIns="25337" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="889000">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="844550">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -7100,14 +7098,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="de-DE" sz="2000" kern="1200"/>
+            <a:rPr lang="de-DE" sz="1900" kern="1200"/>
             <a:t>Business Understanding</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="549177" y="124970"/>
-        <a:ext cx="1633503" cy="1089001"/>
+        <a:off x="529700" y="198710"/>
+        <a:ext cx="1575568" cy="1050378"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{0F685972-CAB9-4F91-855D-F64E4DDD58AC}">
@@ -7117,8 +7115,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2454930" y="124970"/>
-          <a:ext cx="2722504" cy="1089001"/>
+          <a:off x="2367863" y="198710"/>
+          <a:ext cx="2625946" cy="1050378"/>
         </a:xfrm>
         <a:prstGeom prst="chevron">
           <a:avLst/>
@@ -7164,7 +7162,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="889000">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="844550">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -7177,14 +7175,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="de-DE" sz="2000" kern="1200"/>
+            <a:rPr lang="de-DE" sz="1900" kern="1200"/>
             <a:t>Data Understanding</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2999431" y="124970"/>
-        <a:ext cx="1633503" cy="1089001"/>
+        <a:off x="2893052" y="198710"/>
+        <a:ext cx="1575568" cy="1050378"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{17D254A7-5410-4199-A532-0DEF39893E6F}">
@@ -7194,8 +7192,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4905184" y="124970"/>
-          <a:ext cx="2722504" cy="1089001"/>
+          <a:off x="4731215" y="198710"/>
+          <a:ext cx="2625946" cy="1050378"/>
         </a:xfrm>
         <a:prstGeom prst="chevron">
           <a:avLst/>
@@ -7272,8 +7270,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="5449685" y="124970"/>
-        <a:ext cx="1633503" cy="1089001"/>
+        <a:off x="5256404" y="198710"/>
+        <a:ext cx="1575568" cy="1050378"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{372F9F24-0327-4C22-A698-AFB77E0910A5}">
@@ -7283,8 +7281,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="7355438" y="124970"/>
-          <a:ext cx="2722504" cy="1089001"/>
+          <a:off x="7094567" y="198710"/>
+          <a:ext cx="2625946" cy="1050378"/>
         </a:xfrm>
         <a:prstGeom prst="chevron">
           <a:avLst/>
@@ -7361,8 +7359,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="7899939" y="124970"/>
-        <a:ext cx="1633503" cy="1089001"/>
+        <a:off x="7619756" y="198710"/>
+        <a:ext cx="1575568" cy="1050378"/>
       </dsp:txXfrm>
     </dsp:sp>
   </dsp:spTree>
@@ -13960,13 +13958,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>154306</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>93969</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>459105</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>98097</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -14004,13 +14002,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>91441</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>18984</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>59978</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -14206,37 +14204,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Business Understanding</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="711200">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-            <a:buNone/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1600" kern="1200">
-              <a:solidFill>
-                <a:srgbClr val="44546A">
-                  <a:hueOff val="0"/>
-                  <a:satOff val="0"/>
-                  <a:lumOff val="0"/>
-                  <a:alphaOff val="0"/>
-                </a:srgbClr>
-              </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>erarbeiten</a:t>
+            <a:t>Determine Business Understanding</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -14266,6 +14234,7 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
           <a:stCxn id="5" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
@@ -14359,7 +14328,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>Business Ziele</a:t>
+            <a:t>Background</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -14389,6 +14358,7 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
           <a:stCxn id="13" idx="1"/>
           <a:endCxn id="5" idx="2"/>
         </xdr:cNvCxnSpPr>
@@ -14399,141 +14369,6 @@
           <a:ext cx="982980" cy="453009"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>360045</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>93345</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>510540</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>172593</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="Flussdiagramm: Dokument 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAD6CD75-C334-4038-93B7-1B60833865FA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7475220" y="4903470"/>
-          <a:ext cx="941070" cy="622173"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartDocument">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="28575"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Business</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> Success Criteria</a:t>
-          </a:r>
-          <a:endParaRPr lang="de-DE" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>535305</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>42482</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>363855</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>45339</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="20" name="Gerader Verbinder 19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3F8B13A-0FCB-4564-A064-9C993FDB8817}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="13" idx="3"/>
-          <a:endCxn id="18" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="6859905" y="5214557"/>
-          <a:ext cx="619125" cy="2857"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
@@ -14655,24 +14490,21 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t> Mining Ziele </a:t>
+            <a:t> Mining Goals</a:t>
           </a:r>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1600" kern="1200">
-              <a:solidFill>
-                <a:srgbClr val="44546A">
-                  <a:hueOff val="0"/>
-                  <a:satOff val="0"/>
-                  <a:lumOff val="0"/>
-                  <a:alphaOff val="0"/>
-                </a:srgbClr>
-              </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>erarbeiten</a:t>
-          </a:r>
+          <a:endParaRPr lang="de-DE" sz="1600" kern="1200">
+            <a:solidFill>
+              <a:srgbClr val="44546A">
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+              </a:srgbClr>
+            </a:solidFill>
+            <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -14701,6 +14533,7 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
           <a:stCxn id="22" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
@@ -14800,7 +14633,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t> Ziele</a:t>
+            <a:t> Goals</a:t>
           </a:r>
           <a:endParaRPr lang="de-DE" sz="1100">
             <a:solidFill>
@@ -14917,6 +14750,7 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
           <a:stCxn id="26" idx="1"/>
           <a:endCxn id="22" idx="2"/>
         </xdr:cNvCxnSpPr>
@@ -14970,6 +14804,7 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
           <a:stCxn id="26" idx="3"/>
           <a:endCxn id="27" idx="1"/>
         </xdr:cNvCxnSpPr>
@@ -15002,445 +14837,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>245745</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>173355</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>17145</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="41" name="Flussdiagramm: Vordefinierter Prozess 40">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44A6CB72-932E-46A8-B515-7FB2B1AB008B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3408045" y="8105775"/>
-          <a:ext cx="3089910" cy="521970"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartPredefinedProcess">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="5B9BD5">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:srgbClr>
-        </a:solidFill>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:srgbClr val="44546A">
-              <a:shade val="80000"/>
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:srgbClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="64008" tIns="21336" rIns="21336" bIns="21336" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="711200">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-            <a:buNone/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1600" kern="1200">
-              <a:solidFill>
-                <a:srgbClr val="44546A">
-                  <a:hueOff val="0"/>
-                  <a:satOff val="0"/>
-                  <a:lumOff val="0"/>
-                  <a:alphaOff val="0"/>
-                </a:srgbClr>
-              </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Projektplan</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1600" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="44546A">
-                  <a:hueOff val="0"/>
-                  <a:satOff val="0"/>
-                  <a:lumOff val="0"/>
-                  <a:alphaOff val="0"/>
-                </a:srgbClr>
-              </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> erarbeiten</a:t>
-          </a:r>
-          <a:endParaRPr lang="de-DE" sz="1600" kern="1200">
-            <a:solidFill>
-              <a:srgbClr val="44546A">
-                <a:hueOff val="0"/>
-                <a:satOff val="0"/>
-                <a:lumOff val="0"/>
-                <a:alphaOff val="0"/>
-              </a:srgbClr>
-            </a:solidFill>
-            <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>257176</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>114301</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>249556</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>120016</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="42" name="Verbinder: gewinkelt 41">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9FA20FB-D3AE-4D6E-9A79-978D1FB3F8D9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="41" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000">
-          <a:off x="2628901" y="4019551"/>
-          <a:ext cx="782955" cy="4349115"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>161162</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="46" name="Flussdiagramm: Dokument 45">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D08E651-72D5-42DA-BE44-1B06F442AF43}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5934075" y="9258299"/>
-          <a:ext cx="942975" cy="599313"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartDocument">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="28575"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Projekt</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>plan</a:t>
-          </a:r>
-          <a:endParaRPr lang="de-DE" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>510540</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>161162</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="47" name="Flussdiagramm: Dokument 46">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBC62106-A4D9-4EC8-ACDE-32CF326345C9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7477125" y="9258299"/>
-          <a:ext cx="939165" cy="599313"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartDocument">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="28575"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Hilfsmittel</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>209551</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>20956</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>396241</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>42482</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="48" name="Verbinder: gewinkelt 47">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DEBE4FC-4CC4-47CD-A81A-7C9231B025BB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="46" idx="1"/>
-          <a:endCxn id="41" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000">
-          <a:off x="4953001" y="8631556"/>
-          <a:ext cx="977265" cy="926401"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>548640</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>42481</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>358140</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>42481</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="49" name="Gerader Verbinder 48">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D810F37D-CAAB-4A62-87CB-B0CBF6B602AC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="46" idx="3"/>
-          <a:endCxn id="47" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6873240" y="9557956"/>
-          <a:ext cx="600075" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>230505</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>143691</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>65586</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -15470,13 +14875,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>249555</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>169545</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>169545</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>131445</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -15551,37 +14956,8 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Daten</a:t>
+            <a:t>Collect Data</a:t>
           </a:r>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1600" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="44546A">
-                  <a:hueOff val="0"/>
-                  <a:satOff val="0"/>
-                  <a:lumOff val="0"/>
-                  <a:alphaOff val="0"/>
-                </a:srgbClr>
-              </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> sammeln</a:t>
-          </a:r>
-          <a:endParaRPr lang="de-DE" sz="1600" kern="1200">
-            <a:solidFill>
-              <a:srgbClr val="44546A">
-                <a:hueOff val="0"/>
-                <a:satOff val="0"/>
-                <a:lumOff val="0"/>
-                <a:alphaOff val="0"/>
-              </a:srgbClr>
-            </a:solidFill>
-            <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -15591,13 +14967,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>133351</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>245745</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>63819</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -15643,13 +15019,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>401955</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>97155</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>174498</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -15725,13 +15101,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>135256</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>401955</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>45340</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -15778,13 +15154,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>255270</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>59055</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>182880</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>20955</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -15859,7 +15235,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Daten beschreiben</a:t>
+            <a:t>Describe Data</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -15870,13 +15246,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>619126</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>253366</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>126683</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -15922,13 +15298,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>398145</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>154305</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>54483</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -16004,13 +15380,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>217170</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>17146</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>398145</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>104395</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -16057,13 +15433,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>245745</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>173355</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>17145</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -16138,7 +15514,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Daten sichten</a:t>
+            <a:t>Daten Exploration</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -16149,13 +15525,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>133351</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>249555</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>120016</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -16201,13 +15577,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>396239</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>95249</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>161924</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>168782</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -16283,13 +15659,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>20955</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>396239</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>41528</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -16336,13 +15712,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>163830</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>120015</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -16417,37 +15793,8 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Daten</a:t>
+            <a:t>Verify Data Quality</a:t>
           </a:r>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1600" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="44546A">
-                  <a:hueOff val="0"/>
-                  <a:satOff val="0"/>
-                  <a:lumOff val="0"/>
-                  <a:alphaOff val="0"/>
-                </a:srgbClr>
-              </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> Qualität überprüfen</a:t>
-          </a:r>
-          <a:endParaRPr lang="de-DE" sz="1600" kern="1200">
-            <a:solidFill>
-              <a:srgbClr val="44546A">
-                <a:hueOff val="0"/>
-                <a:satOff val="0"/>
-                <a:lumOff val="0"/>
-                <a:alphaOff val="0"/>
-              </a:srgbClr>
-            </a:solidFill>
-            <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -16457,13 +15804,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>108</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>20954</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>179070</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>122465</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -16539,13 +15886,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>205740</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>121921</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>109</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>160157</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -16592,13 +15939,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>243840</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>35243</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -16644,13 +15991,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>230505</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>207919</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>122</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>75384</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -16680,13 +16027,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>249555</xdr:colOff>
-      <xdr:row>122</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>169545</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>169545</xdr:colOff>
-      <xdr:row>125</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>131445</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -16761,7 +16108,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Daten</a:t>
+            <a:t>Select</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="de-DE" sz="1600" kern="1200" baseline="0">
@@ -16777,7 +16124,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t> auswählen</a:t>
+            <a:t> Data</a:t>
           </a:r>
           <a:endParaRPr lang="de-DE" sz="1600" kern="1200">
             <a:solidFill>
@@ -16801,13 +16148,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>133351</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>245745</xdr:colOff>
-      <xdr:row>124</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>63819</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -16853,13 +16200,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>398145</xdr:colOff>
-      <xdr:row>126</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>93345</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>129</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>170688</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -16911,7 +16258,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>Warum</a:t>
+            <a:t>Rationale</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="de-DE" sz="1100" baseline="0">
@@ -16919,7 +16266,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t> schließen wir Daten aus?</a:t>
+            <a:t> for Inclusion/Exclusion</a:t>
           </a:r>
           <a:endParaRPr lang="de-DE" sz="1100">
             <a:solidFill>
@@ -16935,13 +16282,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>125</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>135256</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>398145</xdr:colOff>
-      <xdr:row>128</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>41530</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -16988,13 +16335,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>255270</xdr:colOff>
-      <xdr:row>132</xdr:row>
+      <xdr:row>122</xdr:row>
       <xdr:rowOff>59055</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>182880</xdr:colOff>
-      <xdr:row>135</xdr:row>
+      <xdr:row>125</xdr:row>
       <xdr:rowOff>20955</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -17069,37 +16416,8 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Daten</a:t>
+            <a:t>Clean Data</a:t>
           </a:r>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1600" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="44546A">
-                  <a:hueOff val="0"/>
-                  <a:satOff val="0"/>
-                  <a:lumOff val="0"/>
-                  <a:alphaOff val="0"/>
-                </a:srgbClr>
-              </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> bereinigen</a:t>
-          </a:r>
-          <a:endParaRPr lang="de-DE" sz="1600" kern="1200">
-            <a:solidFill>
-              <a:srgbClr val="44546A">
-                <a:hueOff val="0"/>
-                <a:satOff val="0"/>
-                <a:lumOff val="0"/>
-                <a:alphaOff val="0"/>
-              </a:srgbClr>
-            </a:solidFill>
-            <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -17109,13 +16427,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>619126</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>253366</xdr:colOff>
-      <xdr:row>133</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>126683</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -17161,13 +16479,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>398145</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>127</xdr:row>
       <xdr:rowOff>154305</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>141</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>54483</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -17243,13 +16561,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>217170</xdr:colOff>
-      <xdr:row>135</xdr:row>
+      <xdr:row>125</xdr:row>
       <xdr:rowOff>17146</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>398145</xdr:colOff>
-      <xdr:row>139</xdr:row>
+      <xdr:row>129</xdr:row>
       <xdr:rowOff>104395</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -17296,13 +16614,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>245745</xdr:colOff>
-      <xdr:row>144</xdr:row>
+      <xdr:row>134</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>173355</xdr:colOff>
-      <xdr:row>147</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>17145</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -17417,13 +16735,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>133351</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>249555</xdr:colOff>
-      <xdr:row>145</xdr:row>
+      <xdr:row>135</xdr:row>
       <xdr:rowOff>120016</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -17469,13 +16787,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>396240</xdr:colOff>
-      <xdr:row>150</xdr:row>
+      <xdr:row>140</xdr:row>
       <xdr:rowOff>102869</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>153</xdr:row>
+      <xdr:row>143</xdr:row>
       <xdr:rowOff>163067</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -17538,13 +16856,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>209551</xdr:colOff>
-      <xdr:row>147</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>20956</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>396241</xdr:colOff>
-      <xdr:row>152</xdr:row>
+      <xdr:row>142</xdr:row>
       <xdr:rowOff>42482</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -17591,13 +16909,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>155</xdr:row>
+      <xdr:row>145</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>163830</xdr:colOff>
-      <xdr:row>158</xdr:row>
+      <xdr:row>148</xdr:row>
       <xdr:rowOff>120015</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -17672,7 +16990,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Daten formatieren</a:t>
+            <a:t>Format Data</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -17683,13 +17001,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>392430</xdr:colOff>
-      <xdr:row>162</xdr:row>
+      <xdr:row>152</xdr:row>
       <xdr:rowOff>13334</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>544830</xdr:colOff>
-      <xdr:row>165</xdr:row>
+      <xdr:row>155</xdr:row>
       <xdr:rowOff>79247</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -17752,13 +17070,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>200026</xdr:colOff>
-      <xdr:row>158</xdr:row>
+      <xdr:row>148</xdr:row>
       <xdr:rowOff>114301</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>398146</xdr:colOff>
-      <xdr:row>163</xdr:row>
+      <xdr:row>153</xdr:row>
       <xdr:rowOff>141542</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -17805,13 +17123,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>243840</xdr:colOff>
-      <xdr:row>157</xdr:row>
+      <xdr:row>147</xdr:row>
       <xdr:rowOff>35243</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -17857,13 +17175,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>230505</xdr:colOff>
-      <xdr:row>169</xdr:row>
+      <xdr:row>159</xdr:row>
       <xdr:rowOff>153488</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>49530</xdr:colOff>
-      <xdr:row>177</xdr:row>
+      <xdr:row>167</xdr:row>
       <xdr:rowOff>77288</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -17893,13 +17211,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>249555</xdr:colOff>
-      <xdr:row>177</xdr:row>
+      <xdr:row>167</xdr:row>
       <xdr:rowOff>169545</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>169545</xdr:colOff>
-      <xdr:row>180</xdr:row>
+      <xdr:row>170</xdr:row>
       <xdr:rowOff>131445</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -17974,37 +17292,8 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Modeling Technik</a:t>
+            <a:t>Choose Modeling Techniques</a:t>
           </a:r>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1600" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="44546A">
-                  <a:hueOff val="0"/>
-                  <a:satOff val="0"/>
-                  <a:lumOff val="0"/>
-                  <a:alphaOff val="0"/>
-                </a:srgbClr>
-              </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> auswählen</a:t>
-          </a:r>
-          <a:endParaRPr lang="de-DE" sz="1600" kern="1200">
-            <a:solidFill>
-              <a:srgbClr val="44546A">
-                <a:hueOff val="0"/>
-                <a:satOff val="0"/>
-                <a:lumOff val="0"/>
-                <a:alphaOff val="0"/>
-              </a:srgbClr>
-            </a:solidFill>
-            <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -18014,13 +17303,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>176</xdr:row>
+      <xdr:row>166</xdr:row>
       <xdr:rowOff>133351</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>245745</xdr:colOff>
-      <xdr:row>179</xdr:row>
+      <xdr:row>169</xdr:row>
       <xdr:rowOff>63819</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -18066,13 +17355,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>398145</xdr:colOff>
-      <xdr:row>181</xdr:row>
+      <xdr:row>171</xdr:row>
       <xdr:rowOff>93345</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>184</xdr:row>
+      <xdr:row>174</xdr:row>
       <xdr:rowOff>170688</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -18135,13 +17424,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>180</xdr:row>
+      <xdr:row>170</xdr:row>
       <xdr:rowOff>135256</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>398145</xdr:colOff>
-      <xdr:row>183</xdr:row>
+      <xdr:row>173</xdr:row>
       <xdr:rowOff>41530</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -18188,13 +17477,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>255270</xdr:colOff>
-      <xdr:row>187</xdr:row>
+      <xdr:row>177</xdr:row>
       <xdr:rowOff>59055</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>182880</xdr:colOff>
-      <xdr:row>190</xdr:row>
+      <xdr:row>180</xdr:row>
       <xdr:rowOff>20955</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -18269,7 +17558,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Test</a:t>
+            <a:t>Generate</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="de-DE" sz="1600" kern="1200" baseline="0">
@@ -18285,7 +17574,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t> Design generieren</a:t>
+            <a:t> Test Design</a:t>
           </a:r>
           <a:endParaRPr lang="de-DE" sz="1600" kern="1200">
             <a:solidFill>
@@ -18309,13 +17598,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>619126</xdr:colOff>
-      <xdr:row>176</xdr:row>
+      <xdr:row>166</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>253366</xdr:colOff>
-      <xdr:row>188</xdr:row>
+      <xdr:row>178</xdr:row>
       <xdr:rowOff>126683</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -18361,13 +17650,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>398145</xdr:colOff>
-      <xdr:row>192</xdr:row>
+      <xdr:row>182</xdr:row>
       <xdr:rowOff>154305</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>196</xdr:row>
+      <xdr:row>186</xdr:row>
       <xdr:rowOff>54483</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -18430,13 +17719,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>217170</xdr:colOff>
-      <xdr:row>190</xdr:row>
+      <xdr:row>180</xdr:row>
       <xdr:rowOff>17146</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>398145</xdr:colOff>
-      <xdr:row>194</xdr:row>
+      <xdr:row>184</xdr:row>
       <xdr:rowOff>104395</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -18483,13 +17772,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>245745</xdr:colOff>
-      <xdr:row>199</xdr:row>
+      <xdr:row>189</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>173355</xdr:colOff>
-      <xdr:row>202</xdr:row>
+      <xdr:row>192</xdr:row>
       <xdr:rowOff>17145</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -18564,37 +17853,8 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Modell</a:t>
+            <a:t>Build Model</a:t>
           </a:r>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1600" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="44546A">
-                  <a:hueOff val="0"/>
-                  <a:satOff val="0"/>
-                  <a:lumOff val="0"/>
-                  <a:alphaOff val="0"/>
-                </a:srgbClr>
-              </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> aufbauen</a:t>
-          </a:r>
-          <a:endParaRPr lang="de-DE" sz="1600" kern="1200">
-            <a:solidFill>
-              <a:srgbClr val="44546A">
-                <a:hueOff val="0"/>
-                <a:satOff val="0"/>
-                <a:lumOff val="0"/>
-                <a:alphaOff val="0"/>
-              </a:srgbClr>
-            </a:solidFill>
-            <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -18604,13 +17864,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>176</xdr:row>
+      <xdr:row>166</xdr:row>
       <xdr:rowOff>133351</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>249555</xdr:colOff>
-      <xdr:row>200</xdr:row>
+      <xdr:row>190</xdr:row>
       <xdr:rowOff>120016</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -18656,13 +17916,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>205</xdr:row>
+      <xdr:row>195</xdr:row>
       <xdr:rowOff>99059</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>208</xdr:row>
+      <xdr:row>198</xdr:row>
       <xdr:rowOff>164972</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -18725,13 +17985,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>205741</xdr:colOff>
-      <xdr:row>202</xdr:row>
+      <xdr:row>192</xdr:row>
       <xdr:rowOff>17146</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>400051</xdr:colOff>
-      <xdr:row>207</xdr:row>
+      <xdr:row>197</xdr:row>
       <xdr:rowOff>44387</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -18778,13 +18038,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>210</xdr:row>
+      <xdr:row>200</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>163830</xdr:colOff>
-      <xdr:row>213</xdr:row>
+      <xdr:row>203</xdr:row>
       <xdr:rowOff>120015</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -18859,37 +18119,8 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Modell</a:t>
+            <a:t>Evaluate Model</a:t>
           </a:r>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1600" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="44546A">
-                  <a:hueOff val="0"/>
-                  <a:satOff val="0"/>
-                  <a:lumOff val="0"/>
-                  <a:alphaOff val="0"/>
-                </a:srgbClr>
-              </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> bewerten</a:t>
-          </a:r>
-          <a:endParaRPr lang="de-DE" sz="1600" kern="1200">
-            <a:solidFill>
-              <a:srgbClr val="44546A">
-                <a:hueOff val="0"/>
-                <a:satOff val="0"/>
-                <a:lumOff val="0"/>
-                <a:alphaOff val="0"/>
-              </a:srgbClr>
-            </a:solidFill>
-            <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -18899,13 +18130,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>396240</xdr:colOff>
-      <xdr:row>217</xdr:row>
+      <xdr:row>207</xdr:row>
       <xdr:rowOff>17144</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>220</xdr:row>
+      <xdr:row>210</xdr:row>
       <xdr:rowOff>79247</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -18957,8 +18188,21 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>Modellbewertung</a:t>
+            <a:t>Modell</a:t>
           </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> Assessment</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -18968,13 +18212,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>205741</xdr:colOff>
-      <xdr:row>213</xdr:row>
+      <xdr:row>203</xdr:row>
       <xdr:rowOff>121920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>396241</xdr:colOff>
-      <xdr:row>218</xdr:row>
+      <xdr:row>208</xdr:row>
       <xdr:rowOff>138683</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -19021,13 +18265,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>176</xdr:row>
+      <xdr:row>166</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>243840</xdr:colOff>
-      <xdr:row>212</xdr:row>
+      <xdr:row>202</xdr:row>
       <xdr:rowOff>35243</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -19073,13 +18317,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>205</xdr:row>
+      <xdr:row>195</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>426720</xdr:colOff>
-      <xdr:row>208</xdr:row>
+      <xdr:row>198</xdr:row>
       <xdr:rowOff>159258</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -19131,7 +18375,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>Modelle</a:t>
+            <a:t>Models</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -19142,13 +18386,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>207</xdr:row>
+      <xdr:row>197</xdr:row>
       <xdr:rowOff>33909</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>662940</xdr:colOff>
-      <xdr:row>207</xdr:row>
+      <xdr:row>197</xdr:row>
       <xdr:rowOff>41528</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -19195,13 +18439,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>215265</xdr:colOff>
-      <xdr:row>205</xdr:row>
+      <xdr:row>195</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>771525</xdr:colOff>
-      <xdr:row>208</xdr:row>
+      <xdr:row>198</xdr:row>
       <xdr:rowOff>155448</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -19261,7 +18505,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t> Beschreibung</a:t>
+            <a:t> Description</a:t>
           </a:r>
           <a:endParaRPr lang="de-DE" sz="1100">
             <a:solidFill>
@@ -19277,13 +18521,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>207</xdr:row>
+      <xdr:row>197</xdr:row>
       <xdr:rowOff>30099</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>211455</xdr:colOff>
-      <xdr:row>207</xdr:row>
+      <xdr:row>197</xdr:row>
       <xdr:rowOff>33909</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -19330,13 +18574,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>672465</xdr:colOff>
-      <xdr:row>217</xdr:row>
+      <xdr:row>207</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>434340</xdr:colOff>
-      <xdr:row>220</xdr:row>
+      <xdr:row>210</xdr:row>
       <xdr:rowOff>86868</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -19388,7 +18632,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>Parameter</a:t>
+            <a:t>Revised</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="de-DE" sz="1100" baseline="0">
@@ -19396,7 +18640,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t> anpassen</a:t>
+            <a:t> Parameter</a:t>
           </a:r>
           <a:endParaRPr lang="de-DE" sz="1100">
             <a:solidFill>
@@ -19412,13 +18656,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>218</xdr:row>
+      <xdr:row>208</xdr:row>
       <xdr:rowOff>140588</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>668655</xdr:colOff>
-      <xdr:row>218</xdr:row>
+      <xdr:row>208</xdr:row>
       <xdr:rowOff>148209</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -19459,278 +18703,6 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>703762</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>1903</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>394607</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>54428</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Ellipse 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C3A2034-CC90-4F88-A6A0-B61B4F26206E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7017476" y="4206510"/>
-          <a:ext cx="480060" cy="406311"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="00B050"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="2800">
-              <a:latin typeface="Wingdings 2" panose="05020102010507070707" pitchFamily="18" charset="2"/>
-            </a:rPr>
-            <a:t>P</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>701856</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>17689</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>392701</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>96884</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="82" name="Ellipse 81">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{391AD3F2-BE77-48D0-AE29-DC86875F39C3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7015570" y="5814332"/>
-          <a:ext cx="480060" cy="432981"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="00B050"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="2800">
-              <a:latin typeface="Wingdings 2" panose="05020102010507070707" pitchFamily="18" charset="2"/>
-            </a:rPr>
-            <a:t>P</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>666751</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>136072</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>353786</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>28849</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="83" name="Ellipse 82">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE04FBFC-EF05-465B-8DC7-6BCDE1C89920}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6980465" y="7878536"/>
-          <a:ext cx="476250" cy="423456"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="00B050"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="2800">
-              <a:latin typeface="Wingdings 2" panose="05020102010507070707" pitchFamily="18" charset="2"/>
-            </a:rPr>
-            <a:t>P</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>730976</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>427537</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>67765</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="101" name="Ellipse 100">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1011961E-8DDE-4778-A531-809E4B0A5B51}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8623119" y="12396108"/>
-          <a:ext cx="485775" cy="421550"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="00B050"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="2800">
-              <a:latin typeface="Wingdings 2" panose="05020102010507070707" pitchFamily="18" charset="2"/>
-            </a:rPr>
-            <a:t>P</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -19999,49 +18971,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView showGridLines="0" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:2" s="7" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:2" s="7" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>0</v>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="9" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="35" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="36" spans="1:1" s="7" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A36" s="6" t="s">
-        <v>4</v>
+    <row r="33" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="34" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="1:1" s="7" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A35" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -20053,53 +19020,53 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DB9C917-B085-4C85-8CEE-98DF81155E36}">
-  <dimension ref="A1:B169"/>
+  <dimension ref="A1:B159"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A35" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M80" sqref="M80"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A127" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AA207" sqref="AA207"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:2" s="7" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A4" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="B18" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="59" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="60" spans="2:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="B60" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="114" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="115" spans="2:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="B115" s="4" t="s">
+    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:2" s="7" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A4" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="168" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="169" spans="2:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="B169" s="4" t="s">
-        <v>12</v>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B18" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B50" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="105" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B105" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="159" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B159" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/kaggle.com/Santander_Customer_Transaction_Prediction/Project_Strategy.xlsx
+++ b/kaggle.com/Santander_Customer_Transaction_Prediction/Project_Strategy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rbwes\Documents\Programmierworkspaces\Python\DataScienceProjects-1\kaggle.com\Santander_Customer_Transaction_Prediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13C73CC4-8BA2-4D95-822E-457391D069AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66873673-306C-40B4-9E0F-EF17CCA30B64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General_Procedure_CRISP" sheetId="1" r:id="rId1"/>
@@ -6054,7 +6054,7 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4512" y="225718"/>
+          <a:off x="4512" y="222317"/>
           <a:ext cx="2626975" cy="1050790"/>
         </a:xfrm>
         <a:prstGeom prst="chevron">
@@ -6120,7 +6120,7 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="529907" y="225718"/>
+        <a:off x="529907" y="222317"/>
         <a:ext cx="1576185" cy="1050790"/>
       </dsp:txXfrm>
     </dsp:sp>
@@ -6131,7 +6131,7 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2368790" y="225718"/>
+          <a:off x="2368790" y="222317"/>
           <a:ext cx="2626975" cy="1050790"/>
         </a:xfrm>
         <a:prstGeom prst="chevron">
@@ -6199,7 +6199,7 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2894185" y="225718"/>
+        <a:off x="2894185" y="222317"/>
         <a:ext cx="1576185" cy="1050790"/>
       </dsp:txXfrm>
     </dsp:sp>
@@ -6210,7 +6210,7 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4733068" y="225718"/>
+          <a:off x="4733068" y="222317"/>
           <a:ext cx="2626975" cy="1050790"/>
         </a:xfrm>
         <a:prstGeom prst="chevron">
@@ -6278,7 +6278,7 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="5258463" y="225718"/>
+        <a:off x="5258463" y="222317"/>
         <a:ext cx="1576185" cy="1050790"/>
       </dsp:txXfrm>
     </dsp:sp>
@@ -6289,7 +6289,7 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="7097346" y="225718"/>
+          <a:off x="7097346" y="222317"/>
           <a:ext cx="2626975" cy="1050790"/>
         </a:xfrm>
         <a:prstGeom prst="chevron">
@@ -6357,7 +6357,7 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="7622741" y="225718"/>
+        <a:off x="7622741" y="222317"/>
         <a:ext cx="1576185" cy="1050790"/>
       </dsp:txXfrm>
     </dsp:sp>
@@ -6704,7 +6704,7 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4512" y="197551"/>
+          <a:off x="4512" y="194149"/>
           <a:ext cx="2626975" cy="1050790"/>
         </a:xfrm>
         <a:prstGeom prst="chevron">
@@ -6770,7 +6770,7 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="529907" y="197551"/>
+        <a:off x="529907" y="194149"/>
         <a:ext cx="1576185" cy="1050790"/>
       </dsp:txXfrm>
     </dsp:sp>
@@ -6781,7 +6781,7 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2368790" y="197551"/>
+          <a:off x="2368790" y="194149"/>
           <a:ext cx="2626975" cy="1050790"/>
         </a:xfrm>
         <a:prstGeom prst="chevron">
@@ -6847,7 +6847,7 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2894185" y="197551"/>
+        <a:off x="2894185" y="194149"/>
         <a:ext cx="1576185" cy="1050790"/>
       </dsp:txXfrm>
     </dsp:sp>
@@ -6858,7 +6858,7 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4733068" y="197551"/>
+          <a:off x="4733068" y="194149"/>
           <a:ext cx="2626975" cy="1050790"/>
         </a:xfrm>
         <a:prstGeom prst="chevron">
@@ -6936,7 +6936,7 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="5258463" y="197551"/>
+        <a:off x="5258463" y="194149"/>
         <a:ext cx="1576185" cy="1050790"/>
       </dsp:txXfrm>
     </dsp:sp>
@@ -6947,7 +6947,7 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="7097346" y="197551"/>
+          <a:off x="7097346" y="194149"/>
           <a:ext cx="2626975" cy="1050790"/>
         </a:xfrm>
         <a:prstGeom prst="chevron">
@@ -7015,7 +7015,7 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="7622741" y="197551"/>
+        <a:off x="7622741" y="194149"/>
         <a:ext cx="1576185" cy="1050790"/>
       </dsp:txXfrm>
     </dsp:sp>
@@ -19022,8 +19022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DB9C917-B085-4C85-8CEE-98DF81155E36}">
   <dimension ref="A1:B159"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A127" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AA207" sqref="AA207"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/kaggle.com/Santander_Customer_Transaction_Prediction/Project_Strategy.xlsx
+++ b/kaggle.com/Santander_Customer_Transaction_Prediction/Project_Strategy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rbwes\Documents\Programmierworkspaces\Python\DataScienceProjects-1\kaggle.com\Santander_Customer_Transaction_Prediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66873673-306C-40B4-9E0F-EF17CCA30B64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A14DF81C-4531-4927-AE7E-650ED087083E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14874,294 +14874,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>249555</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>169545</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>169545</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>131445</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="55" name="Flussdiagramm: Vordefinierter Prozess 54">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4422175-A1ED-4996-B461-E694EAE5D8D1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3408045" y="4259580"/>
-          <a:ext cx="3089910" cy="504825"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartPredefinedProcess">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="5B9BD5">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:srgbClr>
-        </a:solidFill>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:srgbClr val="44546A">
-              <a:shade val="80000"/>
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:srgbClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="64008" tIns="21336" rIns="21336" bIns="21336" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="711200">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buNone/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1600" kern="1200">
-              <a:solidFill>
-                <a:srgbClr val="44546A">
-                  <a:hueOff val="0"/>
-                  <a:satOff val="0"/>
-                  <a:lumOff val="0"/>
-                  <a:alphaOff val="0"/>
-                </a:srgbClr>
-              </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Collect Data</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>133351</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>245745</xdr:colOff>
+      <xdr:colOff>255270</xdr:colOff>
       <xdr:row>60</xdr:row>
-      <xdr:rowOff>63819</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="56" name="Verbinder: gewinkelt 55">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A41D22D3-4154-4C8C-8E55-A315A0659926}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="55" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000">
-          <a:off x="4562475" y="11868151"/>
-          <a:ext cx="426720" cy="473393"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>401955</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>97155</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>174498</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="57" name="Flussdiagramm: Dokument 56">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3FCFA70-7F3B-4CC0-929C-1AF666640189}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7517130" y="12736830"/>
-          <a:ext cx="1331595" cy="620268"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartDocument">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="28575"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Initial</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> Data Report</a:t>
-          </a:r>
-          <a:endParaRPr lang="de-DE" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>135256</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>401955</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>45340</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="58" name="Verbinder: gewinkelt 57">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A6030BC-C201-453F-91DE-69A004E7D8CB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="57" idx="1"/>
-          <a:endCxn id="55" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000">
-          <a:off x="6534150" y="12593956"/>
-          <a:ext cx="982980" cy="453009"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>255270</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>59055</xdr:rowOff>
+      <xdr:rowOff>45451</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>182880</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>20955</xdr:rowOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>7351</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -15176,8 +14897,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3415665" y="5951220"/>
-          <a:ext cx="3089910" cy="504825"/>
+          <a:off x="5589270" y="11829237"/>
+          <a:ext cx="2975610" cy="533400"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartPredefinedProcess">
           <a:avLst/>
@@ -15245,15 +14966,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>619126</xdr:colOff>
+      <xdr:colOff>625930</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>54429</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>253366</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>126683</xdr:rowOff>
+      <xdr:colOff>255271</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>121652</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -15270,8 +14991,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="4572001" y="11858625"/>
-          <a:ext cx="424815" cy="2174558"/>
+          <a:off x="5197930" y="11266715"/>
+          <a:ext cx="391341" cy="829223"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -15298,14 +15019,14 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>398145</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>154305</xdr:rowOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>140701</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>54483</xdr:rowOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>40879</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -15320,8 +15041,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7513320" y="14784705"/>
-          <a:ext cx="1335405" cy="624078"/>
+          <a:off x="8018145" y="12876987"/>
+          <a:ext cx="1278255" cy="662178"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDocument">
           <a:avLst/>
@@ -15380,14 +15101,14 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>217170</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>17146</xdr:rowOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>3542</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>398145</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>104395</xdr:rowOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>90791</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -15405,8 +15126,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="6541770" y="14285596"/>
-          <a:ext cx="971550" cy="811149"/>
+          <a:off x="7075170" y="12358828"/>
+          <a:ext cx="942975" cy="849249"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -15433,14 +15154,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>245745</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>24496</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>173355</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>17145</xdr:rowOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>3541</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -15455,8 +15176,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3411855" y="8105775"/>
-          <a:ext cx="3082290" cy="525780"/>
+          <a:off x="5579745" y="14094282"/>
+          <a:ext cx="2975610" cy="550545"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartPredefinedProcess">
           <a:avLst/>
@@ -15524,15 +15245,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
+      <xdr:colOff>612321</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>133351</xdr:rowOff>
+      <xdr:rowOff>68035</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>249555</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>120016</xdr:rowOff>
+      <xdr:colOff>245745</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>109269</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -15549,8 +15270,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="4562475" y="11868151"/>
-          <a:ext cx="430530" cy="4330065"/>
+          <a:off x="5184321" y="11280321"/>
+          <a:ext cx="395424" cy="3089234"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -15577,14 +15298,14 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>396239</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>81645</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>161924</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>168782</xdr:rowOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>155178</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -15599,8 +15320,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7511414" y="17078324"/>
-          <a:ext cx="1346835" cy="616458"/>
+          <a:off x="8016239" y="15294431"/>
+          <a:ext cx="1289685" cy="645033"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDocument">
           <a:avLst/>
@@ -15659,14 +15380,14 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>20955</xdr:rowOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>7351</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>396239</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>41528</xdr:rowOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>27924</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -15684,8 +15405,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="6534150" y="16461105"/>
-          <a:ext cx="977264" cy="925448"/>
+          <a:off x="7067550" y="14648637"/>
+          <a:ext cx="948689" cy="973073"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -15712,14 +15433,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>119746</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>163830</xdr:colOff>
-      <xdr:row>94</xdr:row>
-      <xdr:rowOff>120015</xdr:rowOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>106411</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -15734,8 +15455,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4991100" y="18021300"/>
-          <a:ext cx="3078480" cy="529590"/>
+          <a:off x="5581650" y="16285032"/>
+          <a:ext cx="2964180" cy="558165"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartPredefinedProcess">
           <a:avLst/>
@@ -15804,14 +15525,14 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>98</xdr:row>
-      <xdr:rowOff>20954</xdr:rowOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>7350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>179070</xdr:colOff>
-      <xdr:row>101</xdr:row>
-      <xdr:rowOff>122465</xdr:rowOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>108861</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -15826,8 +15547,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8292193" y="18962097"/>
-          <a:ext cx="1357448" cy="632189"/>
+          <a:off x="8020050" y="17506136"/>
+          <a:ext cx="1303020" cy="673011"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDocument">
           <a:avLst/>
@@ -15886,14 +15607,14 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>205740</xdr:colOff>
-      <xdr:row>94</xdr:row>
-      <xdr:rowOff>121921</xdr:rowOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>108317</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>99</xdr:row>
-      <xdr:rowOff>160157</xdr:rowOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>146553</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -15911,8 +15632,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="7308669" y="18355492"/>
-          <a:ext cx="983524" cy="922701"/>
+          <a:off x="7063740" y="16845103"/>
+          <a:ext cx="956310" cy="990736"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -15938,15 +15659,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
+      <xdr:colOff>612322</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>68035</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>243840</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>35243</xdr:rowOff>
+      <xdr:colOff>247651</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>17829</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -15963,8 +15684,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="4572000" y="11858625"/>
-          <a:ext cx="415290" cy="6426518"/>
+          <a:off x="5184322" y="11280321"/>
+          <a:ext cx="397329" cy="5283794"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -19022,8 +18743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DB9C917-B085-4C85-8CEE-98DF81155E36}">
   <dimension ref="A1:B159"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A42" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M60" sqref="M60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/kaggle.com/Santander_Customer_Transaction_Prediction/Project_Strategy.xlsx
+++ b/kaggle.com/Santander_Customer_Transaction_Prediction/Project_Strategy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rbwes\Documents\Programmierworkspaces\Python\DataScienceProjects-1\kaggle.com\Santander_Customer_Transaction_Prediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A14DF81C-4531-4927-AE7E-650ED087083E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DEE6851-6C2B-49F3-B1D1-19FCB6F4D76F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General_Procedure_CRISP" sheetId="1" r:id="rId1"/>
@@ -6054,7 +6054,7 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4512" y="222317"/>
+          <a:off x="4512" y="225718"/>
           <a:ext cx="2626975" cy="1050790"/>
         </a:xfrm>
         <a:prstGeom prst="chevron">
@@ -6120,7 +6120,7 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="529907" y="222317"/>
+        <a:off x="529907" y="225718"/>
         <a:ext cx="1576185" cy="1050790"/>
       </dsp:txXfrm>
     </dsp:sp>
@@ -6131,7 +6131,7 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2368790" y="222317"/>
+          <a:off x="2368790" y="225718"/>
           <a:ext cx="2626975" cy="1050790"/>
         </a:xfrm>
         <a:prstGeom prst="chevron">
@@ -6199,7 +6199,7 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2894185" y="222317"/>
+        <a:off x="2894185" y="225718"/>
         <a:ext cx="1576185" cy="1050790"/>
       </dsp:txXfrm>
     </dsp:sp>
@@ -6210,7 +6210,7 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4733068" y="222317"/>
+          <a:off x="4733068" y="225718"/>
           <a:ext cx="2626975" cy="1050790"/>
         </a:xfrm>
         <a:prstGeom prst="chevron">
@@ -6278,7 +6278,7 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="5258463" y="222317"/>
+        <a:off x="5258463" y="225718"/>
         <a:ext cx="1576185" cy="1050790"/>
       </dsp:txXfrm>
     </dsp:sp>
@@ -6289,7 +6289,7 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="7097346" y="222317"/>
+          <a:off x="7097346" y="225718"/>
           <a:ext cx="2626975" cy="1050790"/>
         </a:xfrm>
         <a:prstGeom prst="chevron">
@@ -6357,7 +6357,7 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="7622741" y="222317"/>
+        <a:off x="7622741" y="225718"/>
         <a:ext cx="1576185" cy="1050790"/>
       </dsp:txXfrm>
     </dsp:sp>
@@ -6704,7 +6704,7 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4512" y="194149"/>
+          <a:off x="4512" y="197551"/>
           <a:ext cx="2626975" cy="1050790"/>
         </a:xfrm>
         <a:prstGeom prst="chevron">
@@ -6770,7 +6770,7 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="529907" y="194149"/>
+        <a:off x="529907" y="197551"/>
         <a:ext cx="1576185" cy="1050790"/>
       </dsp:txXfrm>
     </dsp:sp>
@@ -6781,7 +6781,7 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2368790" y="194149"/>
+          <a:off x="2368790" y="197551"/>
           <a:ext cx="2626975" cy="1050790"/>
         </a:xfrm>
         <a:prstGeom prst="chevron">
@@ -6847,7 +6847,7 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2894185" y="194149"/>
+        <a:off x="2894185" y="197551"/>
         <a:ext cx="1576185" cy="1050790"/>
       </dsp:txXfrm>
     </dsp:sp>
@@ -6858,7 +6858,7 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4733068" y="194149"/>
+          <a:off x="4733068" y="197551"/>
           <a:ext cx="2626975" cy="1050790"/>
         </a:xfrm>
         <a:prstGeom prst="chevron">
@@ -6936,7 +6936,7 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="5258463" y="194149"/>
+        <a:off x="5258463" y="197551"/>
         <a:ext cx="1576185" cy="1050790"/>
       </dsp:txXfrm>
     </dsp:sp>
@@ -6947,7 +6947,7 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="7097346" y="194149"/>
+          <a:off x="7097346" y="197551"/>
           <a:ext cx="2626975" cy="1050790"/>
         </a:xfrm>
         <a:prstGeom prst="chevron">
@@ -7015,7 +7015,7 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="7622741" y="194149"/>
+        <a:off x="7622741" y="197551"/>
         <a:ext cx="1576185" cy="1050790"/>
       </dsp:txXfrm>
     </dsp:sp>
@@ -18743,8 +18743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DB9C917-B085-4C85-8CEE-98DF81155E36}">
   <dimension ref="A1:B159"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A42" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M60" sqref="M60"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
